--- a/Output/Modelling/Autogluon/Autogluon_Tabular_Only_SCF_Medium_Presets_leaderboard.xlsx
+++ b/Output/Modelling/Autogluon/Autogluon_Tabular_Only_SCF_Medium_Presets_leaderboard.xlsx
@@ -503,14 +503,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WeightedEnsemble_L2</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9520851818988465</v>
+        <v>0.9538598047914818</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9659318637274549</v>
+        <v>0.9559118236472945</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -518,44 +518,44 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.3159141540527344</v>
+        <v>0.102107048034668</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2404367923736572</v>
+        <v>0.00896906852722168</v>
       </c>
       <c r="G2" t="n">
-        <v>149.4811537265778</v>
+        <v>15.30899453163147</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005040884017944336</v>
+        <v>0.102107048034668</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006844997406005859</v>
+        <v>0.00896906852722168</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7235310077667236</v>
+        <v>15.30899453163147</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CatBoost</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9511978704525288</v>
+        <v>0.9529724933451642</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9559118236472945</v>
+        <v>0.9539078156312625</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -563,22 +563,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.692267894744873</v>
+        <v>0.01192474365234375</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01593112945556641</v>
+        <v>0.008402347564697266</v>
       </c>
       <c r="G3" t="n">
-        <v>41.78751730918884</v>
+        <v>33.13471007347107</v>
       </c>
       <c r="H3" t="n">
-        <v>0.692267894744873</v>
+        <v>0.01192474365234375</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01593112945556641</v>
+        <v>0.008402347564697266</v>
       </c>
       <c r="J3" t="n">
-        <v>41.78751730918884</v>
+        <v>33.13471007347107</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9503105590062112</v>
+        <v>0.9529724933451642</v>
       </c>
       <c r="C4" t="n">
         <v>0.9559118236472945</v>
@@ -608,22 +608,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.02295589447021484</v>
+        <v>0.01442861557006836</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008124113082885742</v>
+        <v>0.008174896240234375</v>
       </c>
       <c r="G4" t="n">
-        <v>30.31249237060547</v>
+        <v>30.5026068687439</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02295589447021484</v>
+        <v>0.01442861557006836</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008124113082885742</v>
+        <v>0.008174896240234375</v>
       </c>
       <c r="J4" t="n">
-        <v>30.31249237060547</v>
+        <v>30.5026068687439</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -638,14 +638,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>WeightedEnsemble_L2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9503105590062112</v>
+        <v>0.9529724933451642</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9579158316633266</v>
+        <v>0.9559118236472945</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -653,44 +653,44 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.02323794364929199</v>
+        <v>0.01762676239013672</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01064014434814453</v>
+        <v>0.008903264999389648</v>
       </c>
       <c r="G5" t="n">
-        <v>32.42304039001465</v>
+        <v>31.241530418396</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02323794364929199</v>
+        <v>0.003198146820068359</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01064014434814453</v>
+        <v>0.0007283687591552734</v>
       </c>
       <c r="J5" t="n">
-        <v>32.42304039001465</v>
+        <v>0.7389235496520996</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>CatBoost</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9494232475598935</v>
+        <v>0.9520851818988465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9619238476953907</v>
+        <v>0.9559118236472945</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -698,22 +698,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.06713056564331055</v>
+        <v>0.5145111083984375</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01399135589599609</v>
+        <v>0.01034116744995117</v>
       </c>
       <c r="G6" t="n">
-        <v>16.51944947242737</v>
+        <v>34.58843040466309</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06713056564331055</v>
+        <v>0.5145111083984375</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01399135589599609</v>
+        <v>0.01034116744995117</v>
       </c>
       <c r="J6" t="n">
-        <v>16.51944947242737</v>
+        <v>34.58843040466309</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -722,20 +722,20 @@
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RandomForestGini</t>
+          <t>NeuralNetTorch</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9467613132209406</v>
+        <v>0.9503105590062112</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9438877755511023</v>
+        <v>0.9559118236472945</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1607439517974854</v>
+        <v>0.08688592910766602</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05901479721069336</v>
+        <v>0.08149957656860352</v>
       </c>
       <c r="G7" t="n">
-        <v>3.334850311279297</v>
+        <v>14.76909708976746</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1607439517974854</v>
+        <v>0.08688592910766602</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05901479721069336</v>
+        <v>0.08149957656860352</v>
       </c>
       <c r="J7" t="n">
-        <v>3.334850311279297</v>
+        <v>14.76909708976746</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -767,17 +767,17 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NeuralNetTorch</t>
+          <t>LightGBMLarge</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9449866903283053</v>
+        <v>0.9432120674356699</v>
       </c>
       <c r="C8" t="n">
         <v>0.9519038076152304</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.09561967849731445</v>
+        <v>0.0571596622467041</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08793735504150391</v>
+        <v>0.01798701286315918</v>
       </c>
       <c r="G8" t="n">
-        <v>14.85636711120605</v>
+        <v>105.9222390651703</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09561967849731445</v>
+        <v>0.0571596622467041</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08793735504150391</v>
+        <v>0.01798701286315918</v>
       </c>
       <c r="J8" t="n">
-        <v>14.85636711120605</v>
+        <v>105.9222390651703</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -812,20 +812,20 @@
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LightGBMLarge</t>
+          <t>ExtraTreesGini</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9440993788819876</v>
+        <v>0.9396628216503993</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9599198396793587</v>
+        <v>0.9418837675350702</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -833,22 +833,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.08076119422912598</v>
+        <v>0.1232945919036865</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02119922637939453</v>
+        <v>0.0584564208984375</v>
       </c>
       <c r="G9" t="n">
-        <v>108.1295049190521</v>
+        <v>1.084774255752563</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08076119422912598</v>
+        <v>0.1232945919036865</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02119922637939453</v>
+        <v>0.0584564208984375</v>
       </c>
       <c r="J9" t="n">
-        <v>108.1295049190521</v>
+        <v>1.084774255752563</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -857,20 +857,20 @@
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RandomForestEntr</t>
+          <t>ExtraTreesEntr</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9423247559893523</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9378757515030061</v>
+        <v>0.9418837675350702</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -878,22 +878,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1046128273010254</v>
+        <v>0.1544327735900879</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06873798370361328</v>
+        <v>0.06841301918029785</v>
       </c>
       <c r="G10" t="n">
-        <v>3.618944406509399</v>
+        <v>1.234441757202148</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1046128273010254</v>
+        <v>0.1544327735900879</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06873798370361328</v>
+        <v>0.06841301918029785</v>
       </c>
       <c r="J10" t="n">
-        <v>3.618944406509399</v>
+        <v>1.234441757202148</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -902,20 +902,20 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ExtraTreesGini</t>
+          <t>RandomForestGini</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9414374445430346</v>
+        <v>0.937888198757764</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9438877755511023</v>
+        <v>0.9398797595190381</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.1319653987884521</v>
+        <v>0.2074606418609619</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05838680267333984</v>
+        <v>0.06956648826599121</v>
       </c>
       <c r="G11" t="n">
-        <v>1.03532862663269</v>
+        <v>2.562938928604126</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1319653987884521</v>
+        <v>0.2074606418609619</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05838680267333984</v>
+        <v>0.06956648826599121</v>
       </c>
       <c r="J11" t="n">
-        <v>1.03532862663269</v>
+        <v>2.562938928604126</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -947,20 +947,20 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ExtraTreesEntr</t>
+          <t>NeuralNetFastAI</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9414374445430346</v>
+        <v>0.935226264418811</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9418837675350702</v>
+        <v>0.9498997995991983</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1449952125549316</v>
+        <v>2.55754828453064</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07060408592224121</v>
+        <v>0.0196988582611084</v>
       </c>
       <c r="G12" t="n">
-        <v>1.218280792236328</v>
+        <v>9.282830238342285</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1449952125549316</v>
+        <v>2.55754828453064</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07060408592224121</v>
+        <v>0.0196988582611084</v>
       </c>
       <c r="J12" t="n">
-        <v>1.218280792236328</v>
+        <v>9.282830238342285</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -992,20 +992,20 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NeuralNetFastAI</t>
+          <t>RandomForestEntr</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9316770186335404</v>
+        <v>0.9343389529724934</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9519038076152304</v>
+        <v>0.9398797595190381</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1013,22 +1013,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4.354421615600586</v>
+        <v>0.1117186546325684</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03224539756774902</v>
+        <v>0.06949639320373535</v>
       </c>
       <c r="G13" t="n">
-        <v>17.61622667312622</v>
+        <v>3.649843215942383</v>
       </c>
       <c r="H13" t="n">
-        <v>4.354421615600586</v>
+        <v>0.1117186546325684</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03224539756774902</v>
+        <v>0.06949639320373535</v>
       </c>
       <c r="J13" t="n">
-        <v>17.61622667312622</v>
+        <v>3.649843215942383</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,20 +1037,20 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KNeighborsUnif</t>
+          <t>KNeighborsDist</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2866015971606033</v>
+        <v>0.8740017746228926</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2364729458917836</v>
+        <v>0.8897795591182365</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1058,22 +1058,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.03101611137390137</v>
+        <v>0.02674460411071777</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1461749076843262</v>
+        <v>0.01363563537597656</v>
       </c>
       <c r="G14" t="n">
-        <v>23.07333970069885</v>
+        <v>0.03336834907531738</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03101611137390137</v>
+        <v>0.02674460411071777</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1461749076843262</v>
+        <v>0.01363563537597656</v>
       </c>
       <c r="J14" t="n">
-        <v>23.07333970069885</v>
+        <v>0.03336834907531738</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
@@ -1082,20 +1082,20 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KNeighborsDist</t>
+          <t>KNeighborsUnif</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2830523513753327</v>
+        <v>0.8482697426796806</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2284569138276553</v>
+        <v>0.8617234468937875</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1103,22 +1103,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.03142023086547852</v>
+        <v>0.07360720634460449</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01892924308776855</v>
+        <v>0.06829571723937988</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04143714904785156</v>
+        <v>2.494003772735596</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03142023086547852</v>
+        <v>0.07360720634460449</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01892924308776855</v>
+        <v>0.06829571723937988</v>
       </c>
       <c r="J15" t="n">
-        <v>0.04143714904785156</v>
+        <v>2.494003772735596</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
